--- a/Python/data/case-study/SC-network/other-data.xlsx
+++ b/Python/data/case-study/SC-network/other-data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/murwansiddig/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/data/case-study/SC-network/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1006D2BC-A31C-0547-83F5-A1ED0DCF4F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2296E0-7A7C-1045-9A41-FB6893AA4366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{A439FA23-0626-294D-9183-6F263916E661}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44800" windowHeight="22460" xr2:uid="{A439FA23-0626-294D-9183-6F263916E661}"/>
   </bookViews>
   <sheets>
     <sheet name="Costs" sheetId="2" r:id="rId1"/>
@@ -179,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -208,19 +208,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,7 +552,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,16 +568,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="J1" s="10" t="s">
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="10"/>
-      <c r="L1" s="10"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -619,8 +616,8 @@
         <v>4</v>
       </c>
       <c r="B3" s="5">
-        <f>SUM(H3:H6)*(1-H8)</f>
-        <v>82.4</v>
+        <f>SUM(H3:H5)*(1-H8)</f>
+        <v>22.400000000000002</v>
       </c>
       <c r="C3" s="3"/>
       <c r="E3" s="3" t="s">
@@ -717,7 +714,7 @@
       </c>
       <c r="B6" s="9" t="str">
         <f>CONCATENATE("[", ROUND(J10, 1), ", ", ROUND(L10, 1), ", ", ROUND(K10, 1), "]*procurement")</f>
-        <v>[0.1, 0.4, 0.6]*procurement</v>
+        <v>[0.5, 1.6, 2.2]*procurement</v>
       </c>
       <c r="C6" s="3"/>
       <c r="E6" s="3" t="s">
@@ -777,22 +774,22 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J10" s="8">
         <f>J8/$B$3</f>
-        <v>0.13106796116504854</v>
+        <v>0.48214285714285715</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" ref="K10:L10" si="2">K8/$B$3</f>
-        <v>0.59708737864077666</v>
+        <v>2.1964285714285712</v>
       </c>
       <c r="L10" s="8">
         <f t="shared" si="2"/>
-        <v>0.42718446601941751</v>
+        <v>1.5714285714285714</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="10" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -800,7 +797,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
+      <c r="A12" s="3"/>
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
